--- a/data/值班计划表.xlsx
+++ b/data/值班计划表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>周几</t>
+          <t>星期</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -453,1069 +453,1086 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>武恒</t>
+          <t>何立强</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>马刘磊</t>
+          <t>武恒</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-11-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>代瑞林</t>
+          <t>马刘磊</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>魏来</t>
+          <t>代瑞林</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>王朝霞</t>
+          <t>魏来</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>毕恩宇</t>
+          <t>王朝霞</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-11-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>魏以铭</t>
+          <t>毕恩宇</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>张笑笑</t>
+          <t>魏以铭</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>何立强</t>
+          <t>张笑笑</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>武恒</t>
+          <t>何立强</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>马刘磊</t>
+          <t>武恒</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>代瑞林</t>
+          <t>马刘磊</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>魏来</t>
+          <t>代瑞林</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>王朝霞</t>
+          <t>魏来</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>毕恩宇</t>
+          <t>王朝霞</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>魏以铭</t>
+          <t>毕恩宇</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>张笑笑</t>
+          <t>魏以铭</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>何立强</t>
+          <t>张笑笑</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>武恒</t>
+          <t>何立强</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>马刘磊</t>
+          <t>武恒</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>代瑞林</t>
+          <t>马刘磊</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>魏来</t>
+          <t>代瑞林</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>王朝霞</t>
+          <t>魏来</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>毕恩宇</t>
+          <t>王朝霞</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>魏以铭</t>
+          <t>毕恩宇</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>张笑笑</t>
+          <t>魏以铭</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>何立强</t>
+          <t>张笑笑</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>武恒</t>
+          <t>何立强</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>马刘磊</t>
+          <t>武恒</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>代瑞林</t>
+          <t>马刘磊</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>魏来</t>
+          <t>代瑞林</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>王朝霞</t>
+          <t>魏来</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>毕恩宇</t>
+          <t>王朝霞</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>魏以铭</t>
+          <t>毕恩宇</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>张笑笑</t>
+          <t>魏以铭</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>何立强</t>
+          <t>张笑笑</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>武恒</t>
+          <t>何立强</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>马刘磊</t>
+          <t>武恒</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>代瑞林</t>
+          <t>马刘磊</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>魏来</t>
+          <t>代瑞林</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>王朝霞</t>
+          <t>魏来</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>毕恩宇</t>
+          <t>王朝霞</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>魏以铭</t>
+          <t>毕恩宇</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>张笑笑</t>
+          <t>魏以铭</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>何立强</t>
+          <t>张笑笑</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>武恒</t>
+          <t>何立强</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>马刘磊</t>
+          <t>武恒</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>代瑞林</t>
+          <t>马刘磊</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>魏来</t>
+          <t>代瑞林</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>王朝霞</t>
+          <t>魏来</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>毕恩宇</t>
+          <t>王朝霞</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>魏以铭</t>
+          <t>毕恩宇</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>张笑笑</t>
+          <t>魏以铭</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>何立强</t>
+          <t>张笑笑</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>武恒</t>
+          <t>何立强</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>马刘磊</t>
+          <t>武恒</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>代瑞林</t>
+          <t>马刘磊</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-11-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>魏来</t>
+          <t>代瑞林</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>王朝霞</t>
+          <t>魏来</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>毕恩宇</t>
+          <t>王朝霞</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>魏以铭</t>
+          <t>毕恩宇</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>张笑笑</t>
+          <t>魏以铭</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
+        <is>
+          <t>张笑笑</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>周五</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>何立强</t>
         </is>
